--- a/export_iar.xlsx
+++ b/export_iar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Appendix 62</t>
   </si>
@@ -32,31 +32,31 @@
     <t xml:space="preserve"> Supplier : </t>
   </si>
   <si>
-    <t xml:space="preserve">Twis Trading </t>
+    <t>Twis Catering Services</t>
   </si>
   <si>
     <t>IAR No. :</t>
   </si>
   <si>
-    <t>2020-046</t>
+    <t>2020-051</t>
   </si>
   <si>
     <t xml:space="preserve"> PO No./Date : </t>
   </si>
   <si>
-    <t>2020-027 / 2020-02-17</t>
+    <t>2020-038 / 2020-02-27</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2020-02-18</t>
+    <t>2020-03-02</t>
   </si>
   <si>
     <t xml:space="preserve"> Requisitioning Office/Dept. : </t>
   </si>
   <si>
-    <t>FAD</t>
+    <t>LGMED</t>
   </si>
   <si>
     <t>Invoice No. :</t>
@@ -81,28 +81,14 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>S629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV Cable Box
+    <t>S731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meals- Meeting on Establishing Sustainability Mechanisms for the Maintenance of Road Clearing Operations in Region IV-A cum Conduct of Post-Assessment Workshop on the Office of Undersecretary for Local Government &amp; the Support for the Local Governance Pro
 </t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>S631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Television Bracket
-</t>
-  </si>
-  <si>
-    <t>S614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension (3 gang, 6 meters)
-</t>
+    <t>set</t>
   </si>
 </sst>
 </file>
@@ -325,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="137">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -428,6 +414,9 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -445,42 +434,6 @@
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -815,7 +768,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6648450" cy="2395538"/>
@@ -1137,7 +1090,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1155,11 +1108,11 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3"/>
@@ -1170,22 +1123,22 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:8" customHeight="1" ht="18.75">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:8" customHeight="1" ht="15.75">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:8" customHeight="1" ht="18.75">
       <c r="A5" s="4"/>
@@ -1201,11 +1154,11 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:8" customHeight="1" ht="7.15">
       <c r="A7" s="7"/>
@@ -1261,7 +1214,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="18">
-        <v>3927</v>
+        <v>1047</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="22"/>
@@ -1275,7 +1228,9 @@
       <c r="D11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="22"/>
     </row>
@@ -1292,218 +1247,202 @@
       <c r="A13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="22"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="44">
-        <v>2</v>
-      </c>
-      <c r="F14" s="45"/>
+      <c r="E14" s="45">
+        <v>20</v>
+      </c>
+      <c r="F14" s="46"/>
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="50">
-        <v>1</v>
-      </c>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="51"/>
+      <c r="G15" s="2"/>
+      <c r="H15"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="56">
-        <v>15</v>
-      </c>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="57"/>
+      <c r="G16" s="2"/>
+      <c r="H16"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="62"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="31"/>
       <c r="H17"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="64"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="68"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="2"/>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="74"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="2"/>
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="80"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="81"/>
       <c r="G20" s="2"/>
       <c r="H20"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="86"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="2"/>
       <c r="H21"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="88"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="92"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="2"/>
       <c r="H22"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="94"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="98"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="2"/>
       <c r="H23"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="100"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="104"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="105"/>
       <c r="G24" s="2"/>
       <c r="H24"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="106"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="110"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="111"/>
       <c r="G25" s="2"/>
       <c r="H25"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="112"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="116"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="117"/>
       <c r="G26" s="2"/>
       <c r="H26"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="118"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="122"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="123"/>
       <c r="G27" s="2"/>
       <c r="H27"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="124"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="128"/>
+      <c r="A28" s="125"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="129"/>
       <c r="G28" s="2"/>
       <c r="H28"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="130"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="134"/>
+      <c r="A29" s="131"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="135"/>
       <c r="G29" s="2"/>
       <c r="H29"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="136"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="2"/>
-      <c r="H30"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="142"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="2"/>
-      <c r="H31"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="27"/>

--- a/export_iar.xlsx
+++ b/export_iar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Appendix 62</t>
   </si>
@@ -38,19 +38,19 @@
     <t>IAR No. :</t>
   </si>
   <si>
-    <t>2020-051</t>
+    <t>2020-055</t>
   </si>
   <si>
     <t xml:space="preserve"> PO No./Date : </t>
   </si>
   <si>
-    <t>2020-038 / 2020-02-27</t>
+    <t>2020-034 / 2020-02-26</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2020-03-02</t>
+    <t>2020-02-28</t>
   </si>
   <si>
     <t xml:space="preserve"> Requisitioning Office/Dept. : </t>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Date :</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
   </si>
   <si>
     <t>Stock/ 
@@ -81,10 +84,10 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>S731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meals- Meeting on Establishing Sustainability Mechanisms for the Maintenance of Road Clearing Operations in Region IV-A cum Conduct of Post-Assessment Workshop on the Office of Undersecretary for Local Government &amp; the Support for the Local Governance Pro
+    <t>S206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meals- ELCAC Meeting
 </t>
   </si>
   <si>
@@ -1214,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="18">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="22"/>
@@ -1229,7 +1232,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="22"/>
@@ -1245,17 +1248,17 @@
     </row>
     <row r="13" spans="1:8" customHeight="1" ht="28.9">
       <c r="A13" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="22"/>
@@ -1263,17 +1266,17 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="45">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="23"/>

--- a/export_iar.xlsx
+++ b/export_iar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Appendix 62</t>
   </si>
@@ -32,31 +32,31 @@
     <t xml:space="preserve"> Supplier : </t>
   </si>
   <si>
-    <t>Twis Catering Services</t>
+    <t xml:space="preserve">Twis Trading </t>
   </si>
   <si>
     <t>IAR No. :</t>
   </si>
   <si>
-    <t>2020-055</t>
+    <t>2020-058</t>
   </si>
   <si>
     <t xml:space="preserve"> PO No./Date : </t>
   </si>
   <si>
-    <t>2020-034 / 2020-02-26</t>
+    <t>2020-039 / 2020-03-02</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2020-02-28</t>
+    <t>2020-03-06</t>
   </si>
   <si>
     <t xml:space="preserve"> Requisitioning Office/Dept. : </t>
   </si>
   <si>
-    <t>LGMED</t>
+    <t>FAD</t>
   </si>
   <si>
     <t>Invoice No. :</t>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Date :</t>
-  </si>
-  <si>
-    <t>2020-02-18</t>
   </si>
   <si>
     <t>Stock/ 
@@ -84,14 +81,18 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>S206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meals- ELCAC Meeting
-</t>
-  </si>
-  <si>
-    <t>set</t>
+    <t>S595</t>
+  </si>
+  <si>
+    <t>Token
+Jacket
+Material: Microfiber
+Sizes: XS to XXL
+Color: Dark Brown
+With DILG Logo on left chest</t>
+  </si>
+  <si>
+    <t>piece</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1218,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="18">
-        <v>1046</v>
+        <v>3930</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="22"/>
@@ -1232,7 +1233,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="22"/>
@@ -1248,17 +1249,17 @@
     </row>
     <row r="13" spans="1:8" customHeight="1" ht="28.9">
       <c r="A13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>19</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>20</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>21</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="22"/>
@@ -1266,17 +1267,17 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="42" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>23</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="45">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="23"/>

--- a/export_iar.xlsx
+++ b/export_iar.xlsx
@@ -32,25 +32,25 @@
     <t xml:space="preserve"> Supplier : </t>
   </si>
   <si>
-    <t xml:space="preserve">Twis Trading </t>
+    <t>ASR Computer Trading and Services</t>
   </si>
   <si>
     <t>IAR No. :</t>
   </si>
   <si>
-    <t>2020-058</t>
+    <t>2020-060</t>
   </si>
   <si>
     <t xml:space="preserve"> PO No./Date : </t>
   </si>
   <si>
-    <t>2020-039 / 2020-03-02</t>
+    <t>2020-033 / 2020-02-20</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2020-03-06</t>
+    <t>2020-03-11</t>
   </si>
   <si>
     <t xml:space="preserve"> Requisitioning Office/Dept. : </t>
@@ -81,18 +81,23 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>S595</t>
-  </si>
-  <si>
-    <t>Token
-Jacket
-Material: Microfiber
-Sizes: XS to XXL
-Color: Dark Brown
-With DILG Logo on left chest</t>
-  </si>
-  <si>
-    <t>piece</t>
+    <t>S334</t>
+  </si>
+  <si>
+    <t>WIDE SCREEN 65" TV DISPLAY
+LED SMART TV, 65"
+Resolution: 3840x2160, 4K UHD
+Widescreen: Yes
+Screen Mirror/Wireless Projection: Yes
+HDMI: Yes
+Component: USB, Ethernet, Composite Video Input
+Terminal/s: RF Connection, VGA
+Accessories: Wall Bracket, HDMI  Cable and Digital TV Box
+Warranty: One (1) year on parts and services
+Note: Include supply, delivery and installation</t>
+  </si>
+  <si>
+    <t>set</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="18">
-        <v>3930</v>
+        <v>224</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="22"/>
@@ -1277,7 +1282,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="23"/>

--- a/export_iar.xlsx
+++ b/export_iar.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Appendix 62</t>
   </si>
@@ -32,25 +32,25 @@
     <t xml:space="preserve"> Supplier : </t>
   </si>
   <si>
-    <t>ASR Computer Trading and Services</t>
+    <t xml:space="preserve">Twis Trading </t>
   </si>
   <si>
     <t>IAR No. :</t>
   </si>
   <si>
-    <t>2020-060</t>
+    <t>2020-046</t>
   </si>
   <si>
     <t xml:space="preserve"> PO No./Date : </t>
   </si>
   <si>
-    <t>2020-033 / 2020-02-20</t>
+    <t>2020-027 / 2020-02-17</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2020-03-11</t>
+    <t>2020-02-18</t>
   </si>
   <si>
     <t xml:space="preserve"> Requisitioning Office/Dept. : </t>
@@ -81,23 +81,28 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>S334</t>
-  </si>
-  <si>
-    <t>WIDE SCREEN 65" TV DISPLAY
-LED SMART TV, 65"
-Resolution: 3840x2160, 4K UHD
-Widescreen: Yes
-Screen Mirror/Wireless Projection: Yes
-HDMI: Yes
-Component: USB, Ethernet, Composite Video Input
-Terminal/s: RF Connection, VGA
-Accessories: Wall Bracket, HDMI  Cable and Digital TV Box
-Warranty: One (1) year on parts and services
-Note: Include supply, delivery and installation</t>
-  </si>
-  <si>
-    <t>set</t>
+    <t>S629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Cable Box
+</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>S631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Television Bracket
+</t>
+  </si>
+  <si>
+    <t>S614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension (3 gang, 6 meters)
+</t>
   </si>
 </sst>
 </file>
@@ -320,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="48">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -423,9 +428,6 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -453,284 +455,20 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,7 +515,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6648450" cy="2395538"/>
@@ -1099,14 +837,14 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="true" style="1"/>
     <col min="2" max="2" width="43.140625" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3.28515625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="3.28515625" hidden="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="11.5703125" customWidth="true" style="0"/>
     <col min="5" max="5" width="14.7109375" customWidth="true" style="0"/>
     <col min="6" max="6" width="0.140625" customWidth="true" style="0"/>
@@ -1117,11 +855,11 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3"/>
@@ -1132,22 +870,22 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:8" customHeight="1" ht="18.75">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:8" customHeight="1" ht="15.75">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:8" customHeight="1" ht="18.75">
       <c r="A5" s="4"/>
@@ -1163,11 +901,11 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:8" customHeight="1" ht="7.15">
       <c r="A7" s="7"/>
@@ -1223,7 +961,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="18">
-        <v>224</v>
+        <v>3927</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="22"/>
@@ -1237,9 +975,7 @@
       <c r="D11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="12"/>
       <c r="G11" s="22"/>
     </row>
@@ -1256,202 +992,218 @@
       <c r="A13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="22"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="43">
+        <v>2</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="43">
         <v>1</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="2"/>
-      <c r="H15"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="2"/>
-      <c r="H16"/>
+      <c r="A16" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="43">
+        <v>15</v>
+      </c>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="63"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="31"/>
       <c r="H17"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="69"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="2"/>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="75"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="2"/>
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="81"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="2"/>
       <c r="H20"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="83"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="87"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="2"/>
       <c r="H21"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="93"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="2"/>
       <c r="H22"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="95"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="99"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="2"/>
       <c r="H23"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="101"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="105"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="2"/>
       <c r="H24"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="107"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="111"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="2"/>
       <c r="H25"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="113"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="117"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="2"/>
       <c r="H26"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="119"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="123"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="2"/>
       <c r="H27"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="125"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="129"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="2"/>
       <c r="H28"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="131"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="135"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="2"/>
       <c r="H29"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="34"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="28"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="2"/>
+      <c r="H30"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="34"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="28"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="2"/>
+      <c r="H31"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="27"/>

--- a/export_iar.xlsx
+++ b/export_iar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Appendix 62</t>
   </si>
@@ -32,25 +32,19 @@
     <t xml:space="preserve"> Supplier : </t>
   </si>
   <si>
-    <t xml:space="preserve">Twis Trading </t>
+    <t>Joneco Tech. Marketing Corp.</t>
   </si>
   <si>
     <t>IAR No. :</t>
   </si>
   <si>
-    <t>2020-046</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PO No./Date : </t>
   </si>
   <si>
-    <t>2020-027 / 2020-02-17</t>
+    <t>2020-04-062 / 2020-04-24</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
-  </si>
-  <si>
-    <t>2020-02-18</t>
   </si>
   <si>
     <t xml:space="preserve"> Requisitioning Office/Dept. : </t>
@@ -81,28 +75,32 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>S629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV Cable Box
-</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>S631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Television Bracket
-</t>
-  </si>
-  <si>
-    <t>S614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension (3 gang, 6 meters)
-</t>
+    <t>S329</t>
+  </si>
+  <si>
+    <t>Portable Speaker
+* 15" 500W Portable Sound System
+* With 2 Wireless Microphone
+* Remote Controlled
+* Rechargeable Built-in-Battery
+* Line-in Guitar Input / Mic
+* Impedance: 4Ohms
+* Frequency Response: 50Hz - 20KHz
+* S/N Ratio : 71dB</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>S886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop
+* Intel Core i7-10510U (1.8 GHz base frequency(2b), up to 4.9 GHz base with Intel® Turbo Boost Technology(2g), 8 MB cache, 4 cores)
+* 8 GB DDR4-2400 SDRAM 
+* 512 GB PCIe NVMe M.2 SSD
+* 4-cell, 53 Wh Li-ion polymer
+* 13.3" diagonal FHD IPS BrightView </t>
   </si>
 </sst>
 </file>
@@ -325,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -427,6 +425,9 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -515,7 +516,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6648450" cy="2395538"/>
@@ -837,7 +838,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -855,11 +856,11 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3"/>
@@ -870,22 +871,22 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:8" customHeight="1" ht="18.75">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:8" customHeight="1" ht="15.75">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:8" customHeight="1" ht="18.75">
       <c r="A5" s="4"/>
@@ -901,11 +902,11 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:8" customHeight="1" ht="7.15">
       <c r="A7" s="7"/>
@@ -926,54 +927,50 @@
       <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>7</v>
-      </c>
+      <c r="E8" s="20"/>
       <c r="F8" s="9"/>
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>9</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="12"/>
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="18">
-        <v>3927</v>
+        <v>1947</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="16"/>
       <c r="D11" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="12"/>
@@ -990,220 +987,212 @@
     </row>
     <row r="13" spans="1:8" customHeight="1" ht="28.9">
       <c r="A13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="E13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="22"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="E14" s="44">
+        <v>2</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="43">
-        <v>2</v>
-      </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="43">
+      <c r="C15" s="43"/>
+      <c r="D15" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="44">
         <v>1</v>
       </c>
-      <c r="F15" s="45"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="43">
-        <v>15</v>
-      </c>
-      <c r="F16" s="45"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="2"/>
+      <c r="H16"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="47"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="31"/>
       <c r="H17"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="47"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="2"/>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="47"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="48"/>
       <c r="G19" s="2"/>
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="47"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="2"/>
       <c r="H20"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="47"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="2"/>
       <c r="H21"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="47"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="2"/>
       <c r="H22"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="47"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="2"/>
       <c r="H23"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="47"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="2"/>
       <c r="H24"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="47"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="2"/>
       <c r="H25"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="47"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="2"/>
       <c r="H26"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="47"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="48"/>
       <c r="G27" s="2"/>
       <c r="H27"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="47"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="2"/>
       <c r="H28"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="47"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="48"/>
       <c r="G29" s="2"/>
       <c r="H29"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="47"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="48"/>
       <c r="G30" s="2"/>
       <c r="H30"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="2"/>
-      <c r="H31"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="27"/>

--- a/export_iar.xlsx
+++ b/export_iar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Appendix 62</t>
   </si>
@@ -32,21 +32,27 @@
     <t xml:space="preserve"> Supplier : </t>
   </si>
   <si>
-    <t>Joneco Tech. Marketing Corp.</t>
+    <t>Silicon Valley Computer Group Phil. Inc</t>
   </si>
   <si>
     <t>IAR No. :</t>
   </si>
   <si>
+    <t>2020-06-093</t>
+  </si>
+  <si>
     <t xml:space="preserve"> PO No./Date : </t>
   </si>
   <si>
-    <t>2020-04-062 / 2020-04-24</t>
+    <t>2020-05-067 / 2020-06-03</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Requisitioning Office/Dept. : </t>
   </si>
   <si>
@@ -60,6 +66,9 @@
   </si>
   <si>
     <t>Date :</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
   </si>
   <si>
     <t>Stock/ 
@@ -75,32 +84,28 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>S329</t>
-  </si>
-  <si>
-    <t>Portable Speaker
-* 15" 500W Portable Sound System
-* With 2 Wireless Microphone
-* Remote Controlled
-* Rechargeable Built-in-Battery
-* Line-in Guitar Input / Mic
-* Impedance: 4Ohms
-* Frequency Response: 50Hz - 20KHz
-* S/N Ratio : 71dB</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>S886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laptop
-* Intel Core i7-10510U (1.8 GHz base frequency(2b), up to 4.9 GHz base with Intel® Turbo Boost Technology(2g), 8 MB cache, 4 cores)
-* 8 GB DDR4-2400 SDRAM 
-* 512 GB PCIe NVMe M.2 SSD
-* 4-cell, 53 Wh Li-ion polymer
-* 13.3" diagonal FHD IPS BrightView </t>
+    <t>L009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Globe Prepaid Card 300
+</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>S983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Prepaid Card 300
+</t>
+  </si>
+  <si>
+    <t>S984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Prepaid Card 300
+</t>
   </si>
 </sst>
 </file>
@@ -323,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -425,9 +430,6 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -516,7 +518,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6648450" cy="2395538"/>
@@ -838,7 +840,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -856,11 +858,11 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3"/>
@@ -871,22 +873,22 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:8" customHeight="1" ht="18.75">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:8" customHeight="1" ht="15.75">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:8" customHeight="1" ht="18.75">
       <c r="A5" s="4"/>
@@ -902,11 +904,11 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:8" customHeight="1" ht="7.15">
       <c r="A7" s="7"/>
@@ -927,52 +929,58 @@
       <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" s="12"/>
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" s="18">
-        <v>1947</v>
+        <v>38597</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="16"/>
       <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="22"/>
     </row>
@@ -987,212 +995,220 @@
     </row>
     <row r="13" spans="1:8" customHeight="1" ht="28.9">
       <c r="A13" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="36"/>
+        <v>18</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="35"/>
       <c r="D13" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="36"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="35"/>
       <c r="G13" s="22"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="44">
-        <v>2</v>
-      </c>
-      <c r="F14" s="46"/>
+      <c r="A14" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="43">
+        <v>196</v>
+      </c>
+      <c r="F14" s="45"/>
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="44">
-        <v>1</v>
-      </c>
-      <c r="F15" s="46"/>
+      <c r="A15" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="43">
+        <v>82</v>
+      </c>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="2"/>
-      <c r="H16"/>
+      <c r="A16" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="43">
+        <v>6</v>
+      </c>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="48"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="31"/>
       <c r="H17"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="48"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="2"/>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="48"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="2"/>
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="48"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="2"/>
       <c r="H20"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="48"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="2"/>
       <c r="H21"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="48"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="2"/>
       <c r="H22"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="48"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="2"/>
       <c r="H23"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="48"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="2"/>
       <c r="H24"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="48"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="2"/>
       <c r="H25"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="48"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="2"/>
       <c r="H26"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="48"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="2"/>
       <c r="H27"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="48"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="2"/>
       <c r="H28"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="48"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="2"/>
       <c r="H29"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="48"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="2"/>
       <c r="H30"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="34"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="28"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="2"/>
+      <c r="H31"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="27"/>

--- a/export_iar.xlsx
+++ b/export_iar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Appendix 62</t>
   </si>
@@ -32,31 +32,31 @@
     <t xml:space="preserve"> Supplier : </t>
   </si>
   <si>
-    <t>Silicon Valley Computer Group Phil. Inc</t>
+    <t>Queen Lois Catering Service</t>
   </si>
   <si>
     <t>IAR No. :</t>
   </si>
   <si>
-    <t>2020-06-093</t>
+    <t>2020-06-099</t>
   </si>
   <si>
     <t xml:space="preserve"> PO No./Date : </t>
   </si>
   <si>
-    <t>2020-05-067 / 2020-06-03</t>
+    <t>2020-06-0078 / 2020-06-23</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2020-06-29</t>
+    <t>2020-06-24</t>
   </si>
   <si>
     <t xml:space="preserve"> Requisitioning Office/Dept. : </t>
   </si>
   <si>
-    <t>FAD</t>
+    <t>LGMED</t>
   </si>
   <si>
     <t>Invoice No. :</t>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Date :</t>
-  </si>
-  <si>
-    <t>2020-06-23</t>
   </si>
   <si>
     <t>Stock/ 
@@ -84,28 +81,23 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>L009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Globe Prepaid Card 300
+    <t>S863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meals (AM Snack-Lunch-PM Snacks)
 </t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>S983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smart Prepaid Card 300
-</t>
-  </si>
-  <si>
-    <t>S984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Prepaid Card 300
-</t>
+    <t>ART BRIAN G. RUBIO</t>
+  </si>
+  <si>
+    <t>BEZALEEL O. SOLTURA</t>
+  </si>
+  <si>
+    <t>Inspection Officer/Inspection Committee</t>
+  </si>
+  <si>
+    <t>Supply and/or Property Custodian</t>
   </si>
 </sst>
 </file>
@@ -113,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -195,6 +187,15 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -210,7 +211,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border/>
     <border>
       <left style="thin">
@@ -317,9 +318,22 @@
       </bottom>
     </border>
     <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -328,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -452,11 +466,20 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -464,7 +487,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -472,6 +495,27 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,10 +562,10 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6648450" cy="2395538"/>
+    <xdr:ext cx="2905125" cy="762000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="test_img" descr="test_img"/>
@@ -531,6 +575,36 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2781300" cy="857250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -840,16 +914,16 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="true" style="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="true" style="0"/>
+    <col min="2" max="2" width="26.140625" customWidth="true" style="0"/>
     <col min="3" max="3" width="3.28515625" hidden="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.5703125" customWidth="true" style="0"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true" style="0"/>
+    <col min="4" max="4" width="22.42578125" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20.85546875" customWidth="true" style="0"/>
     <col min="6" max="6" width="0.140625" customWidth="true" style="0"/>
     <col min="7" max="7" width="8.85546875" customWidth="true" style="2"/>
   </cols>
@@ -963,9 +1037,7 @@
       <c r="D10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="18">
-        <v>38597</v>
-      </c>
+      <c r="E10" s="18"/>
       <c r="F10" s="12"/>
       <c r="G10" s="22"/>
     </row>
@@ -979,7 +1051,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="22"/>
@@ -995,17 +1067,17 @@
     </row>
     <row r="13" spans="1:8" customHeight="1" ht="28.9">
       <c r="A13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>19</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>20</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>21</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="22"/>
@@ -1013,289 +1085,279 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="43">
-        <v>196</v>
-      </c>
-      <c r="F14" s="45"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="46">
+        <v>18</v>
+      </c>
+      <c r="F14" s="48"/>
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="43">
-        <v>82</v>
-      </c>
-      <c r="F15" s="45"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="2"/>
+      <c r="H15"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="43">
-        <v>6</v>
-      </c>
-      <c r="F16" s="45"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="2"/>
+      <c r="H16"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="47"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="31"/>
       <c r="H17"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="2"/>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="2"/>
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="2"/>
       <c r="H20"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="2"/>
       <c r="H21"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="47"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="2"/>
       <c r="H22"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="2"/>
       <c r="H23"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="47"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="2"/>
       <c r="H24"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="47"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="2"/>
       <c r="H25"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="47"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="2"/>
       <c r="H26"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="2"/>
       <c r="H27"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="47"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="2"/>
       <c r="H28"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="47"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="2"/>
       <c r="H29"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="2"/>
-      <c r="H30"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="2"/>
-      <c r="H31"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="27"/>
       <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="27"/>
       <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="E33" s="51"/>
       <c r="F33" s="28"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="27"/>
       <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="E34" s="51"/>
       <c r="F34" s="28"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="27"/>
       <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="27"/>
       <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="27"/>
       <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
+      <c r="E37" s="51"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="27"/>
       <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="28"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="43"/>
       <c r="C39" s="27"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="D39" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="51"/>
       <c r="F39" s="28"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="43"/>
       <c r="C40" s="27"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="D40" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="51"/>
       <c r="F40" s="28"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="27"/>
       <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
+      <c r="E41" s="51"/>
       <c r="F41" s="28"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="55"/>
       <c r="F42" s="28"/>
     </row>
     <row r="43" spans="1:8">
@@ -1731,6 +1793,10 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>

--- a/export_iar.xlsx
+++ b/export_iar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>Appendix 62</t>
   </si>
@@ -32,31 +32,31 @@
     <t xml:space="preserve"> Supplier : </t>
   </si>
   <si>
-    <t>Queen Lois Catering Service</t>
+    <t xml:space="preserve">Twis Trading </t>
   </si>
   <si>
     <t>IAR No. :</t>
   </si>
   <si>
-    <t>2020-06-099</t>
+    <t>2020-104</t>
   </si>
   <si>
     <t xml:space="preserve"> PO No./Date : </t>
   </si>
   <si>
-    <t>2020-06-0078 / 2020-06-23</t>
+    <t>2020-06-0084 / 2020-06-26</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2020-06-24</t>
+    <t>07/10/2020</t>
   </si>
   <si>
     <t xml:space="preserve"> Requisitioning Office/Dept. : </t>
   </si>
   <si>
-    <t>LGMED</t>
+    <t>FAD</t>
   </si>
   <si>
     <t>Invoice No. :</t>
@@ -81,14 +81,142 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>S863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meals (AM Snack-Lunch-PM Snacks)
+    <t>S016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signpen (black 0.5)
 </t>
   </si>
   <si>
-    <t>ART BRIAN G. RUBIO</t>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign Pen, Blue
+</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>E013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 664 Black
+</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>E016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 664  Yellow
+</t>
+  </si>
+  <si>
+    <t>E014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 664 Cyan
+</t>
+  </si>
+  <si>
+    <t>E015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 664 Magenta
+</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon Ink 790 - Black
+</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon Ink 790 - Cyan
+</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon Ink 790 - Yellow
+</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon Ink 790 - Magenta
+</t>
+  </si>
+  <si>
+    <t>S1040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 001 Black
+</t>
+  </si>
+  <si>
+    <t>S1042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 001 Cyan
+</t>
+  </si>
+  <si>
+    <t>S1043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 001 Magenta
+</t>
+  </si>
+  <si>
+    <t>S1041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 001 Yellow
+</t>
+  </si>
+  <si>
+    <t>S1036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 003 Black
+</t>
+  </si>
+  <si>
+    <t>S1038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 003 Cyan
+</t>
+  </si>
+  <si>
+    <t>S1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 003 Magenta
+</t>
+  </si>
+  <si>
+    <t>S1037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson Ink 003 Yellow
+</t>
+  </si>
+  <si>
+    <t>CAMILLE T. RONQUILLO</t>
   </si>
   <si>
     <t>BEZALEEL O. SOLTURA</t>
@@ -105,7 +233,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -188,6 +316,15 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
@@ -318,11 +455,6 @@
       </bottom>
     </border>
     <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -334,6 +466,11 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -342,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -463,58 +600,46 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -562,7 +687,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2905125" cy="762000"/>
@@ -592,7 +717,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2781300" cy="857250"/>
@@ -914,7 +1039,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1037,7 +1162,9 @@
       <c r="D10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="18">
+        <v>4277</v>
+      </c>
       <c r="F10" s="12"/>
       <c r="G10" s="22"/>
     </row>
@@ -1084,296 +1211,405 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="44"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="46">
-        <v>18</v>
-      </c>
-      <c r="F14" s="48"/>
+      <c r="D14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="40">
+        <v>50</v>
+      </c>
+      <c r="F14" s="45"/>
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="2"/>
-      <c r="H15"/>
+      <c r="A15" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="40">
+        <v>100</v>
+      </c>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="40"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="2"/>
-      <c r="H16"/>
+      <c r="A16" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="40">
+        <v>14</v>
+      </c>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="40"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="50"/>
+      <c r="A17" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="40">
+        <v>7</v>
+      </c>
+      <c r="F17" s="45"/>
       <c r="G17" s="31"/>
-      <c r="H17"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="40"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="2"/>
-      <c r="H18"/>
+      <c r="A18" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="40">
+        <v>7</v>
+      </c>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="40"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="2"/>
-      <c r="H19"/>
+      <c r="A19" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="40">
+        <v>7</v>
+      </c>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="40"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="2"/>
-      <c r="H20"/>
+      <c r="A20" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="40">
+        <v>14</v>
+      </c>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="40"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="2"/>
-      <c r="H21"/>
+      <c r="A21" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="40">
+        <v>7</v>
+      </c>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="40"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="2"/>
-      <c r="H22"/>
+      <c r="A22" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="40">
+        <v>7</v>
+      </c>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="2"/>
-      <c r="H23"/>
+      <c r="A23" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="40">
+        <v>7</v>
+      </c>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="40"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="2"/>
-      <c r="H24"/>
+      <c r="A24" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="40">
+        <v>2</v>
+      </c>
+      <c r="F24" s="45"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="40"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="2"/>
-      <c r="H25"/>
+      <c r="A25" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="40">
+        <v>1</v>
+      </c>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="40"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="2"/>
-      <c r="H26"/>
+      <c r="A26" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="40">
+        <v>1</v>
+      </c>
+      <c r="F26" s="45"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="40"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="2"/>
-      <c r="H27"/>
+      <c r="A27" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="40">
+        <v>1</v>
+      </c>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="40"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="2"/>
-      <c r="H28"/>
+      <c r="A28" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="40">
+        <v>14</v>
+      </c>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="40"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="2"/>
-      <c r="H29"/>
+      <c r="A29" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="40">
+        <v>7</v>
+      </c>
+      <c r="F29" s="45"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="52"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="28"/>
+      <c r="A30" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="40">
+        <v>7</v>
+      </c>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="52"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="28"/>
+      <c r="A31" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="40">
+        <v>7</v>
+      </c>
+      <c r="F31" s="45"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="53"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="43"/>
       <c r="C32" s="27"/>
       <c r="D32" s="32"/>
-      <c r="E32" s="51"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="53"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="43"/>
       <c r="C33" s="27"/>
       <c r="D33" s="32"/>
-      <c r="E33" s="51"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="28"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="53"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="43"/>
       <c r="C34" s="27"/>
       <c r="D34" s="32"/>
-      <c r="E34" s="51"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="28"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="53"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="43"/>
       <c r="C35" s="27"/>
       <c r="D35" s="32"/>
-      <c r="E35" s="51"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="53"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="43"/>
       <c r="C36" s="27"/>
       <c r="D36" s="32"/>
-      <c r="E36" s="51"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="53"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="43"/>
       <c r="C37" s="27"/>
       <c r="D37" s="32"/>
-      <c r="E37" s="51"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="53"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="43"/>
       <c r="C38" s="27"/>
       <c r="D38" s="32"/>
-      <c r="E38" s="51"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="28"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="56" t="s">
-        <v>23</v>
-      </c>
+      <c r="A39" s="47"/>
       <c r="B39" s="43"/>
       <c r="C39" s="27"/>
-      <c r="D39" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="51"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="28"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="56" t="s">
-        <v>25</v>
-      </c>
+      <c r="A40" s="47"/>
       <c r="B40" s="43"/>
       <c r="C40" s="27"/>
-      <c r="D40" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="51"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="28"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="53"/>
+      <c r="A41" s="52" t="s">
+        <v>60</v>
+      </c>
       <c r="B41" s="43"/>
       <c r="C41" s="27"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="51"/>
+      <c r="D41" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="46"/>
       <c r="F41" s="28"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="54"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="55"/>
+      <c r="A42" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="46"/>
       <c r="F42" s="28"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="27"/>
       <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="28"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="51"/>
       <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:8">
@@ -1793,10 +2029,10 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
